--- a/src/test/resources/testdata/Excel.xlsx
+++ b/src/test/resources/testdata/Excel.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16455" windowHeight="5235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16575" windowHeight="3840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Employee" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:O10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,10 +53,10 @@
     <t>AmirKhan_@1235</t>
   </si>
   <si>
-    <t>ajohn456</t>
-  </si>
-  <si>
-    <t>bmary456</t>
+    <t>aajohn456</t>
+  </si>
+  <si>
+    <t>bbmary456</t>
   </si>
 </sst>
 </file>
